--- a/요구분석.xlsx
+++ b/요구분석.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\sMartpaLm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6374EBD3-87BF-4907-802A-EF2C019535B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20475" windowHeight="12120" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구정의" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="227">
   <si>
     <t>사용자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,11 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">신규등록할 목록의 정보(목록명, class명 등)를 입력 받는 화면을 출력 한다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신규 등록된 모델 목록을 저장한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -813,30 +814,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내농장관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농장 주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R2.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>농장 주가 로그인 하여 내 농장의 목록을 조회 하고 농장상태를 확인/조정한다.</t>
+    <t>신규등록할 목록의 정보(목록명, class명 등)를 입력 받는 화면을 출력 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 농장이있으면 전체 농장의 목록을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 등록한 농장 목록의 정보를 입력받는 화면을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2. 저장 버턴을 누른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 내농장 목록을 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 농장 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 농장의 세부정보(고유번호, 이름, 작물명, 규모, 현재 상태 등)와 관리 버턴을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1. 관리 버턴을 누른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 농장 관리 화면을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 개별 농장 관리 화면에 접근한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1. 분활된 영상 화면을 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장에 설치된 기기를 제어할 수 있도록 입력받는 화면을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 농장의 실시간 화면과 현황을 상세하게 확인할 수 있고, 원격으로 관리하거나 시스템 설정을 통해 자동으로 관리 할 수 있도록 설정할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장주가 현재 등록된 전체 농장의 현황을 확인하고 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확대된 (단독의) 영상 화면을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 원격 제어 버턴을 누른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로커로 입력된 제어 신호를 보낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1. 직접제어 버턴을 누른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2. 자동제어 버턴을 누른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 예측 현황 버턴을 누른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델로 예측 된 정보를 날짜별로 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장주, 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 사용자가 농장주 혹은 관리자 id(email)로 로그인 한 후 농장주 관리 화면에 접근한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장의 상세 정보와 분할된 실시간 카메라 영상 테이블을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동제어 설정 switch 정보를 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 등록한 농장 정보를 DB에 저장하고, 등록한 농장정보를 포함한 목록을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,7 +968,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -989,13 +1090,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,12 +1182,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,33 +1194,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,6 +1238,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,13 +1275,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1160,7 +1327,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1194,6 +1361,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1228,9 +1396,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1403,42 +1572,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="3" max="3" width="72.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="3" max="3" width="72.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="33">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="82.5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="87" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
@@ -1449,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="33">
+    <row r="7" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1460,139 +1629,139 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="33">
+    <row r="9" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="33">
+    <row r="11" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="33">
+    <row r="18" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="33">
+    <row r="19" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
@@ -1605,91 +1774,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:E78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.625" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="10" customWidth="1"/>
     <col min="6" max="6" width="2.5" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.8984375" customWidth="1"/>
+    <col min="10" max="10" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="2:10" ht="48.75" customHeight="1">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="27" t="s">
+      <c r="C6" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="30" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="25"/>
       <c r="G8" s="12" t="s">
         <v>27</v>
       </c>
@@ -1701,124 +1870,124 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="2:10" ht="21" customHeight="1">
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="26"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="22"/>
       <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="2:10" ht="33">
-      <c r="B11" s="26" t="s">
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="11" t="s">
-        <v>183</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="D15" s="42"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="D16" s="42"/>
+      <c r="E16" s="39"/>
+    </row>
+    <row r="17" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="42"/>
+      <c r="E17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="27" t="s">
+      <c r="C18" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="39"/>
+    </row>
+    <row r="19" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="30" t="s">
+    <row r="20" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="25"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:10" ht="21" customHeight="1">
-      <c r="B21" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="23"/>
+    <row r="21" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="39"/>
       <c r="D21" s="11" t="s">
         <v>21</v>
       </c>
@@ -1826,11 +1995,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="11" t="s">
         <v>24</v>
       </c>
@@ -1839,557 +2008,1165 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="2:10" ht="49.5">
-      <c r="B23" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="23"/>
+    <row r="23" spans="2:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="39"/>
       <c r="D23" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="D26" s="42"/>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="D27" s="42"/>
+      <c r="E27" s="39"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-    </row>
-    <row r="29" spans="2:10" ht="37.5" customHeight="1">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="27" t="s">
+      <c r="C29" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="30" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="25"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="2:10" ht="39" customHeight="1">
-      <c r="B32" s="23" t="s">
+    <row r="32" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="E32" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B33" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="E33" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="23" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="11" t="s">
-        <v>195</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="26"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="C37" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="C38" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-    </row>
-    <row r="40" spans="2:10" ht="37.5" customHeight="1">
+      <c r="C39" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="27" t="s">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28" t="s">
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="30" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="30"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="29"/>
+      <c r="E42" s="25"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
     </row>
-    <row r="43" spans="2:10" ht="21" customHeight="1">
-      <c r="B43" s="23" t="s">
+    <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="23"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B44" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="23"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B45" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="11" t="s">
+      <c r="E45" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B46" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B47" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="2:10" ht="33">
-      <c r="B46" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="11" t="s">
+      <c r="E47" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B48" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="25" t="s">
+      <c r="C48" s="22"/>
+      <c r="D48" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="11" t="s">
+      <c r="E48" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B49" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="49.5">
-      <c r="B49" s="25" t="s">
+      <c r="C49" s="22"/>
+      <c r="D49" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="2:10" ht="35.25" customHeight="1">
-      <c r="B50" s="23" t="s">
+      <c r="C50" s="21"/>
+      <c r="D50" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="E50" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="2:10" ht="49.5">
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
+    <row r="51" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B51" s="26"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B52" s="26"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B53" s="26"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="C55" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="C56" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-    </row>
-    <row r="58" spans="2:10" ht="37.5" customHeight="1">
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="27" t="s">
+      <c r="C58" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B59" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="28" t="s">
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="30" t="s">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B60" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="30"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="29"/>
+      <c r="E60" s="25"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
     </row>
-    <row r="61" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="11"/>
+    <row r="61" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="E61" s="11"/>
-      <c r="I61" s="16"/>
-    </row>
-    <row r="62" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="11"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B62" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="11"/>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B63" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="11" t="s">
+        <v>225</v>
+      </c>
       <c r="E63" s="11"/>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" spans="2:10" ht="40.5" customHeight="1">
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="11"/>
+    <row r="64" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B64" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="11" t="s">
+        <v>206</v>
+      </c>
       <c r="E64" s="11"/>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="24"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="11"/>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B65" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="E65" s="11"/>
-      <c r="I65" s="10"/>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B66" s="26"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B68" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="C68" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B69" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="C69" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-    </row>
-    <row r="71" spans="2:10" ht="37.5" customHeight="1">
+      <c r="C70" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="27" t="s">
+      <c r="C71" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B72" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="28" t="s">
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="30" t="s">
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+    </row>
+    <row r="73" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="30"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="29"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-    </row>
-    <row r="74" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="11"/>
+      <c r="E73" s="25"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="E74" s="11"/>
-      <c r="I74" s="16"/>
-    </row>
-    <row r="75" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="11"/>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B75" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="E75" s="11"/>
-      <c r="I75" s="16"/>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="11"/>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="E76" s="11"/>
-      <c r="I76" s="16"/>
-    </row>
-    <row r="77" spans="2:10" ht="40.5" customHeight="1">
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="11"/>
+      <c r="I76" s="10"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B77" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="11" t="s">
+        <v>216</v>
+      </c>
       <c r="E77" s="11"/>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="2:10" ht="38.25" customHeight="1">
-      <c r="B78" s="24"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="11"/>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B78" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="E78" s="11"/>
-      <c r="I78" s="16"/>
-    </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="25"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="11"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B79" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="11" t="s">
+        <v>220</v>
+      </c>
       <c r="E79" s="11"/>
     </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B81" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B82" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B83" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B84" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B85" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B86" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="25"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B91" s="27"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B92" s="26"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B94" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B95" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B96" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B97" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B98" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B99" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="23"/>
+      <c r="D99" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="25"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B104" s="27"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B105" s="26"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B107" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B108" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B109" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B110" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B111" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B112" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="23"/>
+      <c r="D112" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="25"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B117" s="27"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B118" s="26"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B120" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B121" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B122" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B123" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B124" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B125" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="23"/>
+      <c r="D125" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="25"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B130" s="27"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B131" s="26"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B133" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B134" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B135" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B136" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B137" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B138" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="23"/>
+      <c r="D138" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" s="25"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B143" s="27"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B144" s="26"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:C10"/>
+  <mergeCells count="143">
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
@@ -2401,50 +3178,21 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2452,84 +3200,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" customWidth="1"/>
-    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.75" style="22" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.8984375" customWidth="1"/>
+    <col min="5" max="5" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" customWidth="1"/>
+    <col min="7" max="7" width="32.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.69921875" customWidth="1"/>
+    <col min="9" max="9" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="18" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>119</v>
+      <c r="C2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2538,18 +3286,18 @@
         <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="21"/>
+        <v>157</v>
+      </c>
+      <c r="H3" s="19"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2557,21 +3305,21 @@
         <v>30</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="H4" s="19"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2579,21 +3327,21 @@
         <v>30</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="21"/>
+        <v>152</v>
+      </c>
+      <c r="H5" s="19"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2601,30 +3349,30 @@
         <v>30</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>31</v>
@@ -2633,19 +3381,19 @@
         <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>133</v>
+      <c r="J7" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2653,26 +3401,26 @@
       <c r="E8" s="11"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="21"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>133</v>
+      <c r="J8" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>32</v>
@@ -2681,96 +3429,96 @@
         <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="17" t="s">
-        <v>133</v>
+      <c r="J9" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>108</v>
+      <c r="F10" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>133</v>
+      <c r="H10" s="19"/>
+      <c r="I10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>42</v>
@@ -2779,17 +3527,17 @@
         <v>43</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>133</v>
+      <c r="H13" s="19"/>
+      <c r="I13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2797,45 +3545,45 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>133</v>
+      <c r="H14" s="19"/>
+      <c r="I14" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="21"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2843,17 +3591,17 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="21"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>133</v>
+        <v>122</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2861,26 +3609,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="21"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>52</v>
@@ -2889,17 +3637,17 @@
         <v>53</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="17" t="s">
+      <c r="H18" s="19"/>
+      <c r="I18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="17" t="s">
-        <v>133</v>
+      <c r="J18" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2907,17 +3655,17 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="17" t="s">
-        <v>133</v>
+      <c r="J19" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2925,91 +3673,91 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="21"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="11" t="s">
         <v>46</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="21"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>133</v>
+      <c r="J22" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="21"/>
+      <c r="H23" s="19"/>
       <c r="I23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>133</v>
+        <v>70</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3017,45 +3765,45 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="21"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>133</v>
+        <v>71</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>133</v>
+      <c r="J25" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3063,17 +3811,17 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="21"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>133</v>
+        <v>73</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3081,17 +3829,17 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>133</v>
+        <v>74</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3099,93 +3847,93 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="21"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="21"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>133</v>
+      <c r="J30" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>133</v>
+      <c r="J31" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3193,62 +3941,62 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="21"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>133</v>
+        <v>145</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="21"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>133</v>
+      <c r="J34" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3256,43 +4004,43 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>133</v>
+      <c r="H35" s="19"/>
+      <c r="I35" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="21"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>133</v>
+        <v>96</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3300,52 +4048,52 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>133</v>
+      <c r="H37" s="19"/>
+      <c r="I37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s">
         <v>25</v>
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/요구분석.xlsx
+++ b/요구분석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\sMartpaLm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6374EBD3-87BF-4907-802A-EF2C019535B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B039A43-BE83-4753-BCC1-995A23DE8181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="228">
   <si>
     <t>사용자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -886,10 +886,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>브로커로 입력된 제어 신호를 보낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2-1. 직접제어 버턴을 누른다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -918,15 +914,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자동제어 설정 switch 정보를 저장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>새로 등록한 농장 정보를 DB에 저장하고, 등록한 농장정보를 포함한 목록을 출력한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>농장 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동제어가 설정된 userid, 농장명, 농장번호, switch 정보를 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본기능, 원격관리기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로커로 입력된 제어 신호를 보내고, userid, 농장명, 농장번호, 제어 내역을 저장한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,28 +1198,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1238,36 +1272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1778,7 +1782,7 @@
   <dimension ref="B1:J144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:E55"/>
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1804,61 +1808,61 @@
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="24" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="G8" s="12" t="s">
         <v>27</v>
       </c>
@@ -1871,10 +1875,10 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="11" t="s">
         <v>178</v>
       </c>
@@ -1883,10 +1887,10 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1896,10 +1900,10 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="11" t="s">
         <v>182</v>
       </c>
@@ -1908,14 +1912,14 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
@@ -1923,41 +1927,41 @@
       <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="39"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="35" t="s">
@@ -1965,29 +1969,29 @@
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="26"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="11" t="s">
         <v>21</v>
       </c>
@@ -1996,10 +2000,10 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="11" t="s">
         <v>24</v>
       </c>
@@ -2009,10 +2013,10 @@
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="2:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="11" t="s">
         <v>185</v>
       </c>
@@ -2022,8 +2026,8 @@
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
@@ -2031,71 +2035,71 @@
       <c r="B26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="39"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="39"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="24" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="25"/>
+      <c r="E31" s="26"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="11" t="s">
         <v>188</v>
       </c>
@@ -2105,10 +2109,10 @@
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="11" t="s">
         <v>191</v>
       </c>
@@ -2118,10 +2122,10 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="11" t="s">
         <v>194</v>
       </c>
@@ -2131,8 +2135,8 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="26"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
     </row>
@@ -2140,71 +2144,71 @@
       <c r="B37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="24" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="25"/>
+      <c r="E42" s="26"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="11" t="s">
         <v>59</v>
       </c>
@@ -2214,10 +2218,10 @@
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="21"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="11" t="s">
         <v>199</v>
       </c>
@@ -2226,10 +2230,10 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="11" t="s">
         <v>60</v>
       </c>
@@ -2239,10 +2243,10 @@
       <c r="I45" s="10"/>
     </row>
     <row r="46" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="21"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="11" t="s">
         <v>195</v>
       </c>
@@ -2252,10 +2256,10 @@
       <c r="I46" s="10"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="22"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="11" t="s">
         <v>61</v>
       </c>
@@ -2265,10 +2269,10 @@
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="22"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="11" t="s">
         <v>63</v>
       </c>
@@ -2277,10 +2281,10 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="22"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="11" t="s">
         <v>77</v>
       </c>
@@ -2290,10 +2294,10 @@
       <c r="I49" s="10"/>
     </row>
     <row r="50" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="21"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="11" t="s">
         <v>66</v>
       </c>
@@ -2303,8 +2307,8 @@
       <c r="I50" s="10"/>
     </row>
     <row r="51" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B51" s="26"/>
-      <c r="C51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="11" t="s">
         <v>76</v>
       </c>
@@ -2314,14 +2318,14 @@
       <c r="I51" s="10"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="26"/>
-      <c r="C52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B53" s="26"/>
-      <c r="C53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
     </row>
@@ -2329,71 +2333,71 @@
       <c r="B55" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+      <c r="C55" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
+      <c r="C56" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
     </row>
     <row r="58" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="24" t="s">
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="23"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="25"/>
+      <c r="E60" s="26"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
     </row>
     <row r="61" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" s="21"/>
+      <c r="B61" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="20"/>
       <c r="D61" s="11" t="s">
         <v>200</v>
       </c>
@@ -2401,10 +2405,10 @@
       <c r="I61" s="10"/>
     </row>
     <row r="62" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="21"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="11" t="s">
         <v>201</v>
       </c>
@@ -2412,21 +2416,21 @@
       <c r="I62" s="10"/>
     </row>
     <row r="63" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E63" s="11"/>
       <c r="I63" s="10"/>
     </row>
     <row r="64" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="11" t="s">
         <v>206</v>
       </c>
@@ -2434,18 +2438,18 @@
       <c r="I64" s="10"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="11" t="s">
         <v>208</v>
       </c>
       <c r="E65" s="11"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="26"/>
-      <c r="C66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
     </row>
@@ -2453,49 +2457,49 @@
       <c r="B68" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B69" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
     </row>
     <row r="70" spans="2:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
+      <c r="C70" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
     </row>
     <row r="71" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="24" t="s">
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="25" t="s">
         <v>35</v>
       </c>
       <c r="G72" s="12"/>
@@ -2504,32 +2508,32 @@
       <c r="J72" s="13"/>
     </row>
     <row r="73" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="23"/>
+      <c r="C73" s="27"/>
       <c r="D73" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="25"/>
+      <c r="E73" s="26"/>
       <c r="I73" s="10"/>
     </row>
     <row r="74" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C74" s="21"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E74" s="11"/>
       <c r="I74" s="10"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="21"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="11" t="s">
         <v>214</v>
       </c>
@@ -2537,44 +2541,44 @@
       <c r="I75" s="10"/>
     </row>
     <row r="76" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C76" s="21"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="11" t="s">
         <v>211</v>
       </c>
       <c r="E76" s="11"/>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B77" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C77" s="21"/>
+    <row r="77" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B77" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="20"/>
       <c r="D77" s="11" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E77" s="11"/>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B78" s="27" t="s">
+    <row r="78" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B78" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="11"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B79" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E78" s="11"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B79" s="26" t="s">
+      <c r="C79" s="23"/>
+      <c r="D79" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="11" t="s">
-        <v>220</v>
       </c>
       <c r="E79" s="11"/>
     </row>
@@ -2582,93 +2586,93 @@
       <c r="B81" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B82" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B83" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B84" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="24" t="s">
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="23"/>
+      <c r="C86" s="27"/>
       <c r="D86" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="25"/>
+      <c r="E86" s="26"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B91" s="27"/>
-      <c r="C91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="20"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B92" s="26"/>
-      <c r="C92" s="22"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="23"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
     </row>
@@ -2676,93 +2680,93 @@
       <c r="B94" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B95" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B96" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B97" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="24" t="s">
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="23"/>
+      <c r="C99" s="27"/>
       <c r="D99" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="25"/>
+      <c r="E99" s="26"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B104" s="27"/>
-      <c r="C104" s="21"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="20"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B105" s="26"/>
-      <c r="C105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="23"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
     </row>
@@ -2770,93 +2774,93 @@
       <c r="B107" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B108" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B109" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B110" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="24" t="s">
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B112" s="23" t="s">
+      <c r="B112" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C112" s="23"/>
+      <c r="C112" s="27"/>
       <c r="D112" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E112" s="25"/>
+      <c r="E112" s="26"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B113" s="21"/>
-      <c r="C113" s="21"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B116" s="21"/>
-      <c r="C116" s="21"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B117" s="27"/>
-      <c r="C117" s="21"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="20"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B118" s="26"/>
-      <c r="C118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="23"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
     </row>
@@ -2864,93 +2868,93 @@
       <c r="B120" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B121" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B122" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B123" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="24" t="s">
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="23"/>
+      <c r="C125" s="27"/>
       <c r="D125" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E125" s="25"/>
+      <c r="E125" s="26"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B126" s="21"/>
-      <c r="C126" s="21"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B129" s="21"/>
-      <c r="C129" s="21"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B130" s="27"/>
-      <c r="C130" s="21"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="20"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B131" s="26"/>
-      <c r="C131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="23"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
     </row>
@@ -2958,98 +2962,217 @@
       <c r="B133" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B134" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B135" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D135" s="21"/>
-      <c r="E135" s="21"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B136" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="24" t="s">
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C138" s="23"/>
+      <c r="C138" s="27"/>
       <c r="D138" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E138" s="25"/>
+      <c r="E138" s="26"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B140" s="21"/>
-      <c r="C140" s="21"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B143" s="27"/>
-      <c r="C143" s="21"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="20"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B144" s="26"/>
-      <c r="C144" s="22"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="23"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
     <mergeCell ref="B141:C141"/>
     <mergeCell ref="B142:C142"/>
     <mergeCell ref="B143:C143"/>
@@ -3074,125 +3197,6 @@
     <mergeCell ref="C122:E122"/>
     <mergeCell ref="C123:E123"/>
     <mergeCell ref="B124:D124"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3222,24 +3226,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="17"/>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
@@ -4059,13 +4063,13 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="2" t="s">
         <v>158</v>
       </c>
@@ -4081,11 +4085,11 @@
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="2" t="s">
         <v>159</v>
       </c>

--- a/요구분석.xlsx
+++ b/요구분석.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20475" windowHeight="12120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20475" windowHeight="12120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="요구정의" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="159">
   <si>
     <t>사용자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,22 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종목정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Front</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주가저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴생성</t>
   </si>
   <si>
@@ -214,35 +194,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분석지표관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-1. 등록 버턴을 누른다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-2.  저장 버턴을 누른다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지표목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지표목록 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지표목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -291,38 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종목목록조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종목별 학습모델 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습 schedule 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습 schedule 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자, 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,22 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식 종목 정보를 조회 하고 매매제안을 받을 종목 선택하여 목록을 만든다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R2.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,58 +267,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자목록조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매매제안 통보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R2.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본기능, 통보기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본기능, 학습기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원별지표관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원별지표목록조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원별지표목록저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분석지표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,14 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>side menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui 물리명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,64 +323,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종목관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무정보조회</t>
-  </si>
-  <si>
-    <t>회원정보조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재무정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종목별재무정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무정보저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종목목록 scrapping</t>
-  </si>
-  <si>
-    <t>재무정보 scrapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Back End</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분석지표등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로그램명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>batch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mvc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,99 +359,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모델목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델-종목매핑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종목별모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델별 학습일정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습일정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자목록관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자제안설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자제안설정조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자제안설정저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분석지표(…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>footer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stock_man_footer.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>navbar.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_menu.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>form_errors.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>base_stockMan.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common_ui/login.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common_ui/signup.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common_ui/stock_man_index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -709,9 +423,6 @@
     <t>R2.4</t>
   </si>
   <si>
-    <t>R1.6</t>
-  </si>
-  <si>
     <t>4. Site 관리기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,9 +433,6 @@
   <si>
     <t>농장주는 모바일로 또는 웹페이지로 접속하여 현재 내 농장의 목록을 조회하고 선택된 농장의 상세 정보를 확인 할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1.7</t>
   </si>
   <si>
     <t>1. 사용자가 시스템에 접근한다.</t>
@@ -826,6 +534,124 @@
   </si>
   <si>
     <t>농장 주가 로그인 하여 내 농장의 목록을 조회 하고 농장상태를 확인/조정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장주화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-7</t>
+  </si>
+  <si>
+    <t>사용자정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장주가 로그인 한 후 내농장 관리화면에 접근한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내농장의 목록을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 확인 할 농장을 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장정보취합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 농장의 실시간 동영상을 포함한 농장 현장 정보를 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장의 상황을 파악한 후 농장 상태를 조정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장 상태를 변경한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1.7, R1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1.5, R1.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,7 +662,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,6 +675,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -995,7 +829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,30 +899,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,6 +943,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,7 +1244,7 @@
   <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1422,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="82.5">
@@ -1430,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1462,10 +1299,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="2" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1473,10 +1310,10 @@
     </row>
     <row r="9" spans="2:4" ht="33">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -1484,10 +1321,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -1495,10 +1332,10 @@
     </row>
     <row r="11" spans="2:4" ht="33">
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -1506,10 +1343,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="2" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
@@ -1517,10 +1354,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
@@ -1538,17 +1375,17 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="8" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
@@ -1556,10 +1393,10 @@
     </row>
     <row r="18" spans="2:4" ht="33">
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
@@ -1567,10 +1404,10 @@
     </row>
     <row r="19" spans="2:4" ht="33">
       <c r="B19" s="2" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
@@ -1578,10 +1415,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
@@ -1606,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J79"/>
+  <dimension ref="B1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:E78"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1635,89 +1472,89 @@
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="2:10" ht="48.75" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="28"/>
       <c r="G8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10" ht="21" customHeight="1">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="11" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="26"/>
+      <c r="B10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="25"/>
       <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1727,26 +1564,26 @@
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:10" ht="33">
-      <c r="B11" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="26"/>
+      <c r="B11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="25"/>
       <c r="D11" s="11" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
@@ -1754,71 +1591,71 @@
       <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="C18" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="28"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10" ht="21" customHeight="1">
-      <c r="B21" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="23"/>
+      <c r="B21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="24"/>
       <c r="D21" s="11" t="s">
         <v>21</v>
       </c>
@@ -1827,10 +1664,10 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="11" t="s">
         <v>24</v>
       </c>
@@ -1840,12 +1677,12 @@
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="2:10" ht="49.5">
-      <c r="B23" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="23"/>
+      <c r="B23" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="24"/>
       <c r="D23" s="11" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>39</v>
@@ -1853,8 +1690,8 @@
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
@@ -1862,108 +1699,108 @@
       <c r="B26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="2:10" ht="37.5" customHeight="1">
       <c r="B29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="C29" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="28"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="2:10" ht="39" customHeight="1">
-      <c r="B32" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="24"/>
       <c r="D32" s="11" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B33" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="23"/>
+      <c r="B33" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="24"/>
       <c r="D33" s="11" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C34" s="23"/>
+      <c r="B34" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="24"/>
       <c r="D34" s="11" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
     </row>
@@ -1971,188 +1808,188 @@
       <c r="B37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+      <c r="C37" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="C38" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="C39" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="2:10" ht="37.5" customHeight="1">
       <c r="B40" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="C40" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="30"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="29"/>
+      <c r="E42" s="28"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="2:10" ht="37.5" customHeight="1">
+      <c r="B44" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="2:10" ht="33">
+      <c r="B46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="49.5">
+      <c r="B49" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="2:10" ht="35.25" customHeight="1">
+      <c r="B50" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="2:10" ht="49.5">
+      <c r="B51" s="29"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B44" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="2:10" ht="33">
-      <c r="B46" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="11" t="s">
+      <c r="E51" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="49.5">
-      <c r="B49" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="2:10" ht="35.25" customHeight="1">
-      <c r="B50" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="2:10" ht="49.5">
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>89</v>
-      </c>
       <c r="I51" s="10"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
     </row>
@@ -2160,236 +1997,157 @@
       <c r="B55" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
+      <c r="C55" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
+      <c r="C56" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="58" spans="2:10" ht="37.5" customHeight="1">
       <c r="B58" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
+      <c r="C58" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="28" t="s">
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="30"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="29"/>
+      <c r="E60" s="28"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
     </row>
     <row r="61" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
+      <c r="B61" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="I61" s="16"/>
     </row>
     <row r="62" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
+      <c r="B62" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
+      <c r="B63" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>152</v>
+      </c>
       <c r="I63" s="10"/>
     </row>
     <row r="64" spans="2:10" ht="40.5" customHeight="1">
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="24"/>
-      <c r="C65" s="23"/>
+    <row r="65" spans="2:9">
+      <c r="B65" s="30"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
+    <row r="66" spans="2:9">
+      <c r="B66" s="29"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
     </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-    </row>
-    <row r="71" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B71" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="29"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-    </row>
-    <row r="74" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="I74" s="16"/>
-    </row>
-    <row r="75" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="I75" s="16"/>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="I76" s="16"/>
-    </row>
-    <row r="77" spans="2:10" ht="40.5" customHeight="1">
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="I77" s="10"/>
-    </row>
-    <row r="78" spans="2:10" ht="38.25" customHeight="1">
-      <c r="B78" s="24"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="I78" s="16"/>
-    </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="25"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B19:D19"/>
+  <mergeCells count="65">
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
@@ -2401,50 +2159,29 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2453,14 +2190,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.875" customWidth="1"/>
@@ -2475,7 +2213,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="37" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -2487,7 +2225,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="19"/>
       <c r="I1" s="37" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
@@ -2495,38 +2233,38 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="18" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="18" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2538,11 +2276,9 @@
         <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="21"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2557,14 +2293,12 @@
         <v>30</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>152</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="21"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2572,24 +2306,30 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="11" t="s">
-        <v>30</v>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>153</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
@@ -2597,212 +2337,198 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="21"/>
       <c r="I7" s="17" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>133</v>
-      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>157</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="21"/>
       <c r="I9" s="17" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>108</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="2"/>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="11"/>
       <c r="F11" s="17"/>
       <c r="G11" s="2"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="I11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="2"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>43</v>
+        <v>131</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>133</v>
-      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="21"/>
       <c r="I14" s="17" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2810,28 +2536,18 @@
     <row r="15" spans="1:12">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>122</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>133</v>
-      </c>
+      <c r="I15" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="17"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
@@ -2840,522 +2556,90 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="11" t="s">
-        <v>123</v>
+      <c r="I16" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:12">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2"/>
       <c r="H17" s="21"/>
       <c r="I17" s="11" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>49</v>
-      </c>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="2"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>133</v>
-      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="11" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="I19" s="10"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J38" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J39" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A38:E39"/>
+    <mergeCell ref="A19:E20"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>